--- a/templates/2EXT04_DNA/2EXT04_DNA.xlsx
+++ b/templates/2EXT04_DNA/2EXT04_DNA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/DataManagementPlans/SWATE_templates/templates/2EXT04_DNA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371A7F22-E117-CF4C-984B-D1F00821835E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89AB6275-23CF-9048-9193-FCF0D21BABDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
   <sheets>
     <sheet name="2EXT04_DNA" sheetId="3" r:id="rId1"/>
@@ -924,13 +924,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5EEB8C5-4C05-AA46-9FA8-0D61FE068A75}">
-  <dimension ref="A1:AB69"/>
+  <dimension ref="A1:Y69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="12" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="A38" sqref="A38"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/templates/2EXT04_DNA/2EXT04_DNA.xlsx
+++ b/templates/2EXT04_DNA/2EXT04_DNA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/DataManagementPlans/SWATE_templates/templates/2EXT04_DNA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89AB6275-23CF-9048-9193-FCF0D21BABDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0927BF39-9C2D-D940-8D79-36ACEBCA5524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
   <sheets>
     <sheet name="2EXT04_DNA" sheetId="3" r:id="rId1"/>
@@ -930,7 +930,7 @@
       <pane xSplit="2" ySplit="12" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/templates/2EXT04_DNA/2EXT04_DNA.xlsx
+++ b/templates/2EXT04_DNA/2EXT04_DNA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/MetadataTemplates/SWATE_templates/templates/2EXT04_DNA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97219A58-8635-9B41-B85C-AA19F43A978E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB40B43F-4FCF-FF4E-B2FA-CCDA5C7E477E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-3900" yWindow="-20960" windowWidth="36580" windowHeight="20920" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
@@ -919,7 +919,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5EEB8C5-4C05-AA46-9FA8-0D61FE068A75}">
-  <dimension ref="A1:AB32"/>
+  <dimension ref="A1:Z32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="13" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
@@ -2059,21 +2059,21 @@
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <customXml>
   <SwateTable Table="annotationTable1" Worksheet="2EXT04_DNA">
-    <TableValidation DateTime="2021-06-07 18:23" SwateVersion="0.4.7" TableName="annotationTable1" Userlist="" WorksheetName="2EXT04_DNA">
+    <TableValidation DateTime="2021-07-27 07:25" SwateVersion="0.4.7" TableName="annotationTable1" Userlist="" WorksheetName="2EXT04_DNA">
       <ColumnValidation ColumnAdress="0" ColumnHeader="Source Name" Importance="None" Unit="None" ValidationFormat="None"/>
       <ColumnValidation ColumnAdress="1" ColumnHeader="Sample Name" Importance="None" Unit="None" ValidationFormat="None"/>
       <ColumnValidation ColumnAdress="2" ColumnHeader="Parameter [Bio entity]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="5" ColumnHeader="Parameter [Biosource amount]" Importance="None" Unit="milligram" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="5" ColumnHeader="Parameter [Biosource amount]" Importance="4" Unit="milligram" ValidationFormat="UnitTerm milligram"/>
       <ColumnValidation ColumnAdress="11" ColumnHeader="Parameter [Extraction method]" Importance="None" Unit="None" ValidationFormat="None"/>
       <ColumnValidation ColumnAdress="14" ColumnHeader="Parameter [Extraction buffer]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="17" ColumnHeader="Parameter [Extraction buffer volume]" Importance="None" Unit="microliter" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="17" ColumnHeader="Parameter [Extraction buffer volume]" Importance="4" Unit="microliter" ValidationFormat="UnitTerm microliter"/>
     </TableValidation>
   </SwateTable>
 </customXml>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C37A85D-7427-B341-B7C7-FCB2A04B0A2A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{735A6B34-FF92-0C46-8B30-B7D2C833FC29}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/templates/2EXT04_DNA/2EXT04_DNA.xlsx
+++ b/templates/2EXT04_DNA/2EXT04_DNA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/MetadataTemplates/SWATE_templates/templates/2EXT04_DNA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\nfdi4plants\SWATE_templates\templates\2EXT04_DNA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB40B43F-4FCF-FF4E-B2FA-CCDA5C7E477E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CC02F3-DF46-4F65-9C5E-89F46BEF04BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3900" yWindow="-20960" windowWidth="36580" windowHeight="20920" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
   <sheets>
     <sheet name="2EXT04_DNA" sheetId="3" r:id="rId1"/>
@@ -20,12 +20,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="86">
   <si>
     <t>Source Name</t>
   </si>
@@ -269,6 +278,24 @@
   </si>
   <si>
     <t>ER SRA_GENOMICS</t>
+  </si>
+  <si>
+    <t>The name of the output of this assay</t>
+  </si>
+  <si>
+    <t>User instruction missing</t>
+  </si>
+  <si>
+    <t>The buffer used to extract the substance from the sample.</t>
+  </si>
+  <si>
+    <t>The amount of extraction buffer applied.</t>
+  </si>
+  <si>
+    <t>Do we want to give a unit? If yes, which one?</t>
+  </si>
+  <si>
+    <t>The name of the input (the source) of this assay.</t>
   </si>
 </sst>
 </file>
@@ -350,7 +377,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -393,6 +420,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -427,7 +460,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -538,10 +571,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{87CB12D2-5D32-5344-BA63-4377B67E3763}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -605,7 +652,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -922,44 +969,44 @@
   <dimension ref="A1:Z32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="13" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="C29" sqref="A24:C29"/>
+      <pane xSplit="3" ySplit="22" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42" style="14" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.1640625" style="14" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="57.33203125" style="14" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.125" style="14" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="57.375" style="14" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="29.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="58.1640625" style="14" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="64.33203125" style="14" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="37.33203125" style="14" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="48.1640625" style="14" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="54.33203125" style="14" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="29.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="58.125" style="14" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="64.375" style="14" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="37.375" style="14" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="48.125" style="14" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="54.375" style="14" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="29.875" style="14" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="58.5" style="14" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="64.6640625" style="14" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="46.83203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="57.1640625" style="14" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="63.33203125" style="14" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="46.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="64.625" style="14" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="46.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="57.125" style="14" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="63.375" style="14" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="46.875" style="14" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="64" style="14" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="70.1640625" style="14" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="37.33203125" style="14" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="48.1640625" style="14" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="54.33203125" style="14" hidden="1" customWidth="1"/>
-    <col min="27" max="16384" width="10.83203125" style="14"/>
+    <col min="23" max="23" width="70.125" style="14" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="37.375" style="14" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="48.125" style="14" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="54.375" style="14" hidden="1" customWidth="1"/>
+    <col min="27" max="16384" width="10.875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>52</v>
       </c>
@@ -991,7 +1038,7 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>52</v>
       </c>
@@ -1067,7 +1114,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>52</v>
       </c>
@@ -1097,7 +1144,7 @@
       <c r="Y3"/>
       <c r="Z3"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -1125,7 +1172,7 @@
       <c r="Y4" s="15"/>
       <c r="Z4" s="15"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>54</v>
       </c>
@@ -1163,7 +1210,7 @@
       <c r="Y5" s="16"/>
       <c r="Z5" s="16"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>54</v>
       </c>
@@ -1199,7 +1246,7 @@
       <c r="Y6" s="16"/>
       <c r="Z6" s="16"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>54</v>
       </c>
@@ -1231,7 +1278,7 @@
       <c r="Y7" s="16"/>
       <c r="Z7" s="16"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>54</v>
       </c>
@@ -1263,7 +1310,7 @@
       <c r="Y8" s="16"/>
       <c r="Z8" s="16"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>54</v>
       </c>
@@ -1293,7 +1340,7 @@
       <c r="Y9" s="16"/>
       <c r="Z9" s="16"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>54</v>
       </c>
@@ -1323,7 +1370,7 @@
       <c r="Y10" s="16"/>
       <c r="Z10" s="16"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -1351,7 +1398,7 @@
       <c r="Y11" s="15"/>
       <c r="Z11" s="15"/>
     </row>
-    <row r="12" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>55</v>
       </c>
@@ -1395,7 +1442,7 @@
       <c r="Y12" s="17"/>
       <c r="Z12" s="17"/>
     </row>
-    <row r="13" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>55</v>
       </c>
@@ -1439,7 +1486,7 @@
       <c r="Y13" s="18"/>
       <c r="Z13" s="18"/>
     </row>
-    <row r="14" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>55</v>
       </c>
@@ -1473,7 +1520,7 @@
       <c r="Y14" s="19"/>
       <c r="Z14" s="19"/>
     </row>
-    <row r="15" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>55</v>
       </c>
@@ -1511,7 +1558,7 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="21"/>
     </row>
-    <row r="16" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>61</v>
       </c>
@@ -1521,8 +1568,12 @@
       <c r="C16" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
+      <c r="D16" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="48" t="s">
+        <v>80</v>
+      </c>
       <c r="F16" s="20"/>
       <c r="G16" s="20"/>
       <c r="H16" s="20"/>
@@ -1535,17 +1586,21 @@
       <c r="O16" s="20"/>
       <c r="P16" s="20"/>
       <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
+      <c r="R16" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="52" t="s">
+        <v>83</v>
+      </c>
       <c r="V16" s="20"/>
       <c r="W16" s="20"/>
       <c r="X16" s="20"/>
       <c r="Y16" s="20"/>
       <c r="Z16" s="20"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>61</v>
       </c>
@@ -1577,7 +1632,7 @@
       <c r="Y17" s="21"/>
       <c r="Z17" s="21"/>
     </row>
-    <row r="18" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>64</v>
       </c>
@@ -1611,7 +1666,7 @@
       <c r="Y18" s="19"/>
       <c r="Z18" s="19"/>
     </row>
-    <row r="19" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>64</v>
       </c>
@@ -1645,7 +1700,7 @@
       <c r="Y19" s="19"/>
       <c r="Z19" s="19"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>64</v>
       </c>
@@ -1681,7 +1736,7 @@
       <c r="Y20" s="19"/>
       <c r="Z20" s="19"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>64</v>
       </c>
@@ -1691,29 +1746,37 @@
       <c r="C21" s="38"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
+      <c r="F21" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="49" t="s">
+        <v>81</v>
+      </c>
       <c r="J21" s="19"/>
       <c r="K21" s="19"/>
       <c r="L21" s="19"/>
       <c r="M21" s="19"/>
       <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
+      <c r="O21" s="50" t="s">
+        <v>81</v>
+      </c>
       <c r="P21" s="19"/>
       <c r="Q21" s="19"/>
       <c r="R21" s="19"/>
       <c r="S21" s="19"/>
       <c r="T21" s="19"/>
-      <c r="U21" s="19"/>
+      <c r="U21" s="53" t="s">
+        <v>84</v>
+      </c>
       <c r="V21" s="19"/>
       <c r="W21" s="19"/>
       <c r="X21" s="19"/>
       <c r="Y21" s="19"/>
       <c r="Z21" s="19"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -1741,7 +1804,7 @@
       <c r="Y22" s="22"/>
       <c r="Z22" s="22"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="41"/>
       <c r="B23" s="41"/>
       <c r="C23" s="41"/>
@@ -1769,7 +1832,7 @@
       <c r="Y23" s="22"/>
       <c r="Z23" s="22"/>
     </row>
-    <row r="24" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="43" t="s">
         <v>79</v>
       </c>
@@ -1803,7 +1866,7 @@
       <c r="Y24" s="28"/>
       <c r="Z24" s="28"/>
     </row>
-    <row r="25" spans="1:26" ht="51" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A25" s="43" t="s">
         <v>79</v>
       </c>
@@ -1837,7 +1900,7 @@
       <c r="Y25" s="28"/>
       <c r="Z25" s="28"/>
     </row>
-    <row r="26" spans="1:26" ht="51" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" s="43" t="s">
         <v>79</v>
       </c>
@@ -1871,7 +1934,7 @@
       <c r="Y26" s="28"/>
       <c r="Z26" s="28"/>
     </row>
-    <row r="27" spans="1:26" ht="51" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A27" s="43" t="s">
         <v>79</v>
       </c>
@@ -1905,7 +1968,7 @@
       <c r="Y27" s="28"/>
       <c r="Z27" s="28"/>
     </row>
-    <row r="28" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
         <v>79</v>
       </c>
@@ -1939,7 +2002,7 @@
       <c r="Y28" s="28"/>
       <c r="Z28" s="28"/>
     </row>
-    <row r="29" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="43" t="s">
         <v>79</v>
       </c>
@@ -1973,7 +2036,7 @@
       <c r="Y29" s="30"/>
       <c r="Z29" s="30"/>
     </row>
-    <row r="30" spans="1:26" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="42"/>
       <c r="B30" s="42"/>
       <c r="C30" s="42"/>
@@ -2001,7 +2064,7 @@
       <c r="Y30" s="27"/>
       <c r="Z30" s="27"/>
     </row>
-    <row r="31" spans="1:26" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
@@ -2026,7 +2089,7 @@
       <c r="Y31" s="23"/>
       <c r="Z31" s="23"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I32" s="24"/>
       <c r="J32" s="24"/>
       <c r="K32" s="24"/>

--- a/templates/2EXT04_DNA/2EXT04_DNA.xlsx
+++ b/templates/2EXT04_DNA/2EXT04_DNA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\nfdi4plants\SWATE_templates\templates\2EXT04_DNA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CC02F3-DF46-4F65-9C5E-89F46BEF04BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53B6DAC-3730-4471-BB03-45FBFB2DA663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
   <sheets>
     <sheet name="2EXT04_DNA" sheetId="3" r:id="rId1"/>
@@ -972,7 +972,7 @@
       <pane xSplit="3" ySplit="22" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
-      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/templates/2EXT04_DNA/2EXT04_DNA.xlsx
+++ b/templates/2EXT04_DNA/2EXT04_DNA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\nfdi4plants\SWATE_templates\templates\2EXT04_DNA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/MetadataTemplates/SWATE_templates/templates/2EXT04_DNA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53B6DAC-3730-4471-BB03-45FBFB2DA663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9ED874-D1F4-BB41-9589-BB9F6142244D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="27900" windowHeight="17500" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
   <sheets>
     <sheet name="2EXT04_DNA" sheetId="3" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="85">
   <si>
     <t>Source Name</t>
   </si>
@@ -108,9 +99,6 @@
     <t>ER target term</t>
   </si>
   <si>
-    <t>Additional information</t>
-  </si>
-  <si>
     <t>User instruction</t>
   </si>
   <si>
@@ -183,9 +171,6 @@
     <t>Review comments</t>
   </si>
   <si>
-    <t>related to http://purl.obolibrary.org/obo/OBI_0302884</t>
-  </si>
-  <si>
     <t>Ontology</t>
   </si>
   <si>
@@ -193,9 +178,6 @@
   </si>
   <si>
     <t>SWATE_annotation_table</t>
-  </si>
-  <si>
-    <t>SWATE templating version (July 26, 2021)</t>
   </si>
   <si>
     <t>content_examples</t>
@@ -280,22 +262,28 @@
     <t>ER SRA_GENOMICS</t>
   </si>
   <si>
-    <t>The name of the output of this assay</t>
-  </si>
-  <si>
-    <t>User instruction missing</t>
-  </si>
-  <si>
     <t>The buffer used to extract the substance from the sample.</t>
   </si>
   <si>
     <t>The amount of extraction buffer applied.</t>
   </si>
   <si>
-    <t>Do we want to give a unit? If yes, which one?</t>
-  </si>
-  <si>
-    <t>The name of the input (the source) of this assay.</t>
+    <t>SWATE templating version (August 18, 2021)</t>
+  </si>
+  <si>
+    <t>is_a term</t>
+  </si>
+  <si>
+    <t>Use to specify subclasses of existing terms</t>
+  </si>
+  <si>
+    <t>is_a URI</t>
+  </si>
+  <si>
+    <t>Unit: microliter</t>
+  </si>
+  <si>
+    <t>ER Additional information</t>
   </si>
 </sst>
 </file>
@@ -512,13 +500,11 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -571,24 +557,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{87CB12D2-5D32-5344-BA63-4377B67E3763}"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -652,7 +638,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -966,53 +952,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5EEB8C5-4C05-AA46-9FA8-0D61FE068A75}">
-  <dimension ref="A1:Z32"/>
+  <dimension ref="A1:Z34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="22" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="24" topLeftCell="I25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.5" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42" style="14" customWidth="1"/>
-    <col min="4" max="4" width="14.625" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.375" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.375" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.125" style="14" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="57.375" style="14" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.1640625" style="14" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="57.33203125" style="14" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="29.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="58.125" style="14" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="64.375" style="14" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="37.375" style="14" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="48.125" style="14" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="54.375" style="14" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="29.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="58.1640625" style="14" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="64.33203125" style="14" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="37.33203125" style="14" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="48.1640625" style="14" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="54.33203125" style="14" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="29.83203125" style="14" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="58.5" style="14" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="64.625" style="14" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="46.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="57.125" style="14" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="63.375" style="14" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="46.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="64.6640625" style="14" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="46.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="57.1640625" style="14" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="63.33203125" style="14" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="46.83203125" style="14" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="64" style="14" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="70.125" style="14" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="37.375" style="14" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="48.125" style="14" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="54.375" style="14" hidden="1" customWidth="1"/>
-    <col min="27" max="16384" width="10.875" style="14"/>
+    <col min="23" max="23" width="70.1640625" style="14" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="37.33203125" style="14" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="48.1640625" style="14" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="54.33203125" style="14" hidden="1" customWidth="1"/>
+    <col min="27" max="16384" width="10.83203125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="49" t="s">
+        <v>79</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="3"/>
@@ -1038,9 +1024,9 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -1078,13 +1064,13 @@
         <v>10</v>
       </c>
       <c r="O2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" t="s">
         <v>39</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>40</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>41</v>
       </c>
       <c r="R2" t="s">
         <v>11</v>
@@ -1114,9 +1100,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -1144,7 +1130,7 @@
       <c r="Y3"/>
       <c r="Z3"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -1172,16 +1158,16 @@
       <c r="Y4" s="15"/>
       <c r="Z4" s="15"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
       <c r="F5" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
@@ -1192,17 +1178,17 @@
       <c r="M5" s="16"/>
       <c r="N5" s="16"/>
       <c r="O5" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P5" s="16"/>
       <c r="Q5" s="16"/>
       <c r="R5" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S5" s="16"/>
       <c r="T5" s="16"/>
       <c r="U5" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V5" s="16"/>
       <c r="W5" s="16"/>
@@ -1210,16 +1196,16 @@
       <c r="Y5" s="16"/>
       <c r="Z5" s="16"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
       <c r="F6" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
@@ -1230,12 +1216,12 @@
       <c r="M6" s="16"/>
       <c r="N6" s="16"/>
       <c r="O6" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P6" s="16"/>
       <c r="Q6" s="16"/>
       <c r="R6" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S6" s="16"/>
       <c r="T6" s="16"/>
@@ -1246,16 +1232,16 @@
       <c r="Y6" s="16"/>
       <c r="Z6" s="16"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
       <c r="F7" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
@@ -1278,16 +1264,16 @@
       <c r="Y7" s="16"/>
       <c r="Z7" s="16"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
       <c r="F8" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
@@ -1310,9 +1296,9 @@
       <c r="Y8" s="16"/>
       <c r="Z8" s="16"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1340,9 +1326,9 @@
       <c r="Y9" s="16"/>
       <c r="Z9" s="16"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -1370,7 +1356,7 @@
       <c r="Y10" s="16"/>
       <c r="Z10" s="16"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -1398,25 +1384,25 @@
       <c r="Y11" s="15"/>
       <c r="Z11" s="15"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="32" t="s">
-        <v>56</v>
+      <c r="C12" s="30" t="s">
+        <v>53</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
       <c r="I12" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
@@ -1424,17 +1410,17 @@
       <c r="M12" s="17"/>
       <c r="N12" s="17"/>
       <c r="O12" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P12" s="17"/>
       <c r="Q12" s="17"/>
       <c r="R12" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S12" s="17"/>
       <c r="T12" s="17"/>
       <c r="U12" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V12" s="17"/>
       <c r="W12" s="17"/>
@@ -1442,25 +1428,25 @@
       <c r="Y12" s="17"/>
       <c r="Z12" s="17"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="33" t="s">
-        <v>57</v>
+      <c r="C13" s="31" t="s">
+        <v>54</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
       <c r="F13" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
       <c r="I13" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
@@ -1468,17 +1454,17 @@
       <c r="M13" s="18"/>
       <c r="N13" s="18"/>
       <c r="O13" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P13" s="18"/>
       <c r="Q13" s="18"/>
       <c r="R13" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S13" s="18"/>
       <c r="T13" s="18"/>
       <c r="U13" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V13" s="18"/>
       <c r="W13" s="18"/>
@@ -1486,15 +1472,15 @@
       <c r="Y13" s="18"/>
       <c r="Z13" s="18"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>59</v>
+      <c r="C14" s="32" t="s">
+        <v>56</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
@@ -1520,25 +1506,25 @@
       <c r="Y14" s="19"/>
       <c r="Z14" s="19"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="35" t="s">
-        <v>60</v>
+      <c r="C15" s="33" t="s">
+        <v>57</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
       <c r="F15" s="21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
       <c r="I15" s="21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J15" s="21"/>
       <c r="K15" s="21"/>
@@ -1551,48 +1537,46 @@
       <c r="R15" s="21"/>
       <c r="S15" s="21"/>
       <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
+      <c r="U15" s="21" t="s">
+        <v>83</v>
+      </c>
       <c r="V15" s="21"/>
       <c r="W15" s="21"/>
       <c r="X15" s="21"/>
       <c r="Y15" s="21"/>
       <c r="Z15" s="21"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
+        <v>58</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
       <c r="P16" s="20"/>
       <c r="Q16" s="20"/>
-      <c r="R16" s="51" t="s">
-        <v>82</v>
+      <c r="R16" s="47" t="s">
+        <v>77</v>
       </c>
       <c r="S16" s="21"/>
       <c r="T16" s="21"/>
-      <c r="U16" s="52" t="s">
-        <v>83</v>
+      <c r="U16" s="48" t="s">
+        <v>78</v>
       </c>
       <c r="V16" s="20"/>
       <c r="W16" s="20"/>
@@ -1600,14 +1584,14 @@
       <c r="Y16" s="20"/>
       <c r="Z16" s="20"/>
     </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="38"/>
+        <v>60</v>
+      </c>
+      <c r="C17" s="36"/>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
@@ -1632,15 +1616,15 @@
       <c r="Y17" s="21"/>
       <c r="Z17" s="21"/>
     </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>66</v>
+        <v>62</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>63</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
@@ -1666,15 +1650,15 @@
       <c r="Y18" s="19"/>
       <c r="Z18" s="19"/>
     </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>66</v>
+      <c r="C19" s="37" t="s">
+        <v>63</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
@@ -1700,14 +1684,16 @@
       <c r="Y19" s="19"/>
       <c r="Z19" s="19"/>
     </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="35"/>
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>81</v>
+      </c>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
@@ -1722,392 +1708,446 @@
       <c r="O20" s="19"/>
       <c r="P20" s="19"/>
       <c r="Q20" s="19"/>
-      <c r="R20" s="19" t="s">
-        <v>49</v>
-      </c>
+      <c r="R20" s="19"/>
       <c r="S20" s="19"/>
       <c r="T20" s="19"/>
-      <c r="U20" s="19" t="s">
-        <v>49</v>
-      </c>
+      <c r="U20" s="19"/>
       <c r="V20" s="19"/>
       <c r="W20" s="19"/>
       <c r="X20" s="19"/>
       <c r="Y20" s="19"/>
       <c r="Z20" s="19"/>
     </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="38"/>
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>81</v>
+      </c>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
-      <c r="F21" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="49" t="s">
-        <v>81</v>
-      </c>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
       <c r="J21" s="19"/>
       <c r="K21" s="19"/>
       <c r="L21" s="19"/>
       <c r="M21" s="19"/>
       <c r="N21" s="19"/>
-      <c r="O21" s="50" t="s">
-        <v>81</v>
-      </c>
+      <c r="O21" s="19"/>
       <c r="P21" s="19"/>
       <c r="Q21" s="19"/>
       <c r="R21" s="19"/>
       <c r="S21" s="19"/>
       <c r="T21" s="19"/>
-      <c r="U21" s="53" t="s">
-        <v>84</v>
-      </c>
+      <c r="U21" s="19"/>
       <c r="V21" s="19"/>
       <c r="W21" s="19"/>
       <c r="X21" s="19"/>
       <c r="Y21" s="19"/>
       <c r="Z21" s="19"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="22"/>
-      <c r="U22" s="22"/>
-      <c r="V22" s="22"/>
-      <c r="W22" s="22"/>
-      <c r="X22" s="22"/>
-      <c r="Y22" s="22"/>
-      <c r="Z22" s="22"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22"/>
-      <c r="S23" s="22"/>
-      <c r="T23" s="22"/>
-      <c r="U23" s="22"/>
-      <c r="V23" s="22"/>
-      <c r="W23" s="22"/>
-      <c r="X23" s="22"/>
-      <c r="Y23" s="22"/>
-      <c r="Z23" s="22"/>
-    </row>
-    <row r="24" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="B24" s="44" t="s">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="33"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="19"/>
+      <c r="X22" s="19"/>
+      <c r="Y22" s="19"/>
+      <c r="Z22" s="19"/>
+    </row>
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="36"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="19"/>
+      <c r="W23" s="19"/>
+      <c r="X23" s="19"/>
+      <c r="Y23" s="19"/>
+      <c r="Z23" s="19"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="22"/>
+      <c r="W24" s="22"/>
+      <c r="X24" s="22"/>
+      <c r="Y24" s="22"/>
+      <c r="Z24" s="22"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="22"/>
+      <c r="V25" s="22"/>
+      <c r="W25" s="22"/>
+      <c r="X25" s="22"/>
+      <c r="Y25" s="22"/>
+      <c r="Z25" s="22"/>
+    </row>
+    <row r="26" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+      <c r="A26" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="39" t="s">
+      <c r="C26" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="46"/>
+      <c r="Q26" s="46"/>
+      <c r="R26" s="52"/>
+      <c r="S26" s="46"/>
+      <c r="T26" s="46"/>
+      <c r="U26" s="52"/>
+      <c r="V26" s="27"/>
+      <c r="W26" s="27"/>
+      <c r="X26" s="27"/>
+      <c r="Y26" s="27"/>
+      <c r="Z26" s="27"/>
+    </row>
+    <row r="27" spans="1:26" ht="51" x14ac:dyDescent="0.2">
+      <c r="A27" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="46"/>
+      <c r="P27" s="46"/>
+      <c r="Q27" s="46"/>
+      <c r="R27" s="46"/>
+      <c r="S27" s="46"/>
+      <c r="T27" s="46"/>
+      <c r="U27" s="46"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="27"/>
+      <c r="X27" s="27"/>
+      <c r="Y27" s="27"/>
+      <c r="Z27" s="27"/>
+    </row>
+    <row r="28" spans="1:26" ht="51" x14ac:dyDescent="0.2">
+      <c r="A28" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="28"/>
-      <c r="U24" s="29"/>
-      <c r="V24" s="28"/>
-      <c r="W24" s="28"/>
-      <c r="X24" s="28"/>
-      <c r="Y24" s="28"/>
-      <c r="Z24" s="28"/>
-    </row>
-    <row r="25" spans="1:26" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="B25" s="45" t="s">
+      <c r="C28" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="46" t="s">
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="46"/>
+      <c r="P28" s="46"/>
+      <c r="Q28" s="46"/>
+      <c r="R28" s="46"/>
+      <c r="S28" s="46"/>
+      <c r="T28" s="46"/>
+      <c r="U28" s="46"/>
+      <c r="V28" s="27"/>
+      <c r="W28" s="27"/>
+      <c r="X28" s="27"/>
+      <c r="Y28" s="27"/>
+      <c r="Z28" s="27"/>
+    </row>
+    <row r="29" spans="1:26" ht="51" x14ac:dyDescent="0.2">
+      <c r="A29" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="28"/>
-      <c r="S25" s="28"/>
-      <c r="T25" s="28"/>
-      <c r="U25" s="28"/>
-      <c r="V25" s="28"/>
-      <c r="W25" s="28"/>
-      <c r="X25" s="28"/>
-      <c r="Y25" s="28"/>
-      <c r="Z25" s="28"/>
-    </row>
-    <row r="26" spans="1:26" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26" s="45" t="s">
+      <c r="C29" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="46" t="s">
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="46"/>
+      <c r="O29" s="46"/>
+      <c r="P29" s="46"/>
+      <c r="Q29" s="46"/>
+      <c r="R29" s="46"/>
+      <c r="S29" s="46"/>
+      <c r="T29" s="46"/>
+      <c r="U29" s="46"/>
+      <c r="V29" s="27"/>
+      <c r="W29" s="27"/>
+      <c r="X29" s="27"/>
+      <c r="Y29" s="27"/>
+      <c r="Z29" s="27"/>
+    </row>
+    <row r="30" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="28"/>
-      <c r="S26" s="28"/>
-      <c r="T26" s="28"/>
-      <c r="U26" s="28"/>
-      <c r="V26" s="28"/>
-      <c r="W26" s="28"/>
-      <c r="X26" s="28"/>
-      <c r="Y26" s="28"/>
-      <c r="Z26" s="28"/>
-    </row>
-    <row r="27" spans="1:26" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="B27" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="28"/>
-      <c r="R27" s="28"/>
-      <c r="S27" s="28"/>
-      <c r="T27" s="28"/>
-      <c r="U27" s="28"/>
-      <c r="V27" s="28"/>
-      <c r="W27" s="28"/>
-      <c r="X27" s="28"/>
-      <c r="Y27" s="28"/>
-      <c r="Z27" s="28"/>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="28"/>
-      <c r="R28" s="28"/>
-      <c r="S28" s="28"/>
-      <c r="T28" s="28"/>
-      <c r="U28" s="28"/>
-      <c r="V28" s="28"/>
-      <c r="W28" s="28"/>
-      <c r="X28" s="28"/>
-      <c r="Y28" s="28"/>
-      <c r="Z28" s="28"/>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="30"/>
-      <c r="T29" s="30"/>
-      <c r="U29" s="30"/>
-      <c r="V29" s="30"/>
-      <c r="W29" s="30"/>
-      <c r="X29" s="30"/>
-      <c r="Y29" s="30"/>
-      <c r="Z29" s="30"/>
-    </row>
-    <row r="30" spans="1:26" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="42"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="27"/>
-      <c r="R30" s="27"/>
-      <c r="S30" s="27"/>
-      <c r="T30" s="27"/>
-      <c r="U30" s="27"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="46"/>
+      <c r="O30" s="46"/>
+      <c r="P30" s="46"/>
+      <c r="Q30" s="46"/>
+      <c r="R30" s="46"/>
+      <c r="S30" s="46"/>
+      <c r="T30" s="46"/>
+      <c r="U30" s="46"/>
       <c r="V30" s="27"/>
       <c r="W30" s="27"/>
       <c r="X30" s="27"/>
       <c r="Y30" s="27"/>
       <c r="Z30" s="27"/>
     </row>
-    <row r="31" spans="1:26" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="23"/>
-      <c r="P31" s="23"/>
-      <c r="Q31" s="23"/>
-      <c r="R31" s="23"/>
-      <c r="S31" s="23"/>
-      <c r="T31" s="23"/>
-      <c r="U31" s="23"/>
-      <c r="V31" s="23"/>
-      <c r="W31" s="23"/>
-      <c r="X31" s="23"/>
-      <c r="Y31" s="23"/>
-      <c r="Z31" s="23"/>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="24"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="24"/>
-      <c r="R32" s="24"/>
-      <c r="S32" s="24"/>
-      <c r="T32" s="24"/>
-      <c r="U32" s="24"/>
-      <c r="V32" s="24"/>
-      <c r="W32" s="24"/>
-      <c r="X32" s="24"/>
-      <c r="Y32" s="24"/>
-      <c r="Z32" s="24"/>
+    <row r="31" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="53"/>
+      <c r="Q31" s="53"/>
+      <c r="R31" s="53"/>
+      <c r="S31" s="53"/>
+      <c r="T31" s="53"/>
+      <c r="U31" s="53"/>
+      <c r="V31" s="28"/>
+      <c r="W31" s="28"/>
+      <c r="X31" s="28"/>
+      <c r="Y31" s="28"/>
+      <c r="Z31" s="28"/>
+    </row>
+    <row r="32" spans="1:26" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="40"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="26"/>
+      <c r="U32" s="26"/>
+      <c r="V32" s="26"/>
+      <c r="W32" s="26"/>
+      <c r="X32" s="26"/>
+      <c r="Y32" s="26"/>
+      <c r="Z32" s="26"/>
+    </row>
+    <row r="33" spans="4:26" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="23"/>
+      <c r="S33" s="23"/>
+      <c r="T33" s="23"/>
+      <c r="U33" s="23"/>
+      <c r="V33" s="23"/>
+      <c r="W33" s="23"/>
+      <c r="X33" s="23"/>
+      <c r="Y33" s="23"/>
+      <c r="Z33" s="23"/>
+    </row>
+    <row r="34" spans="4:26" x14ac:dyDescent="0.2">
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="24"/>
+      <c r="S34" s="24"/>
+      <c r="T34" s="24"/>
+      <c r="U34" s="24"/>
+      <c r="V34" s="24"/>
+      <c r="W34" s="24"/>
+      <c r="X34" s="24"/>
+      <c r="Y34" s="24"/>
+      <c r="Z34" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/templates/2EXT04_DNA/2EXT04_DNA.xlsx
+++ b/templates/2EXT04_DNA/2EXT04_DNA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/MetadataTemplates/SWATE_templates/templates/2EXT04_DNA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\nfdi4plants\SWATE_templates\templates\2EXT04_DNA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C7A5E1-E533-4D45-9B13-F867701F1651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C41D48-BDEF-49DB-A290-D2E656037598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3600" yWindow="-21000" windowWidth="27900" windowHeight="17500" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
   <sheets>
     <sheet name="2EXT04_DNA" sheetId="3" r:id="rId1"/>
@@ -440,9 +440,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="2" builtinId="8"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{87CB12D2-5D32-5344-BA63-4377B67E3763}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -506,7 +506,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -829,37 +829,37 @@
       <selection pane="bottomRight" activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.1640625" style="10" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="57.33203125" style="10" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.125" style="10" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="57.375" style="10" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="29.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="58.1640625" style="10" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="64.33203125" style="10" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="37.33203125" style="10" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="48.1640625" style="10" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="54.33203125" style="10" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="29.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="58.125" style="10" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="64.375" style="10" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="37.375" style="10" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="48.125" style="10" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="54.375" style="10" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="29.875" style="10" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="58.5" style="10" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="64.6640625" style="10" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="46.83203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="57.1640625" style="10" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="63.33203125" style="10" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="46.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="64.625" style="10" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="46.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="57.125" style="10" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="63.375" style="10" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="46.875" style="10" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="64" style="10" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="70.1640625" style="10" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="37.33203125" style="10" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="48.1640625" style="10" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="54.33203125" style="10" hidden="1" customWidth="1"/>
-    <col min="26" max="16384" width="10.83203125" style="10"/>
+    <col min="22" max="22" width="70.125" style="10" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="37.375" style="10" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="48.125" style="10" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="54.375" style="10" hidden="1" customWidth="1"/>
+    <col min="26" max="16384" width="10.875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>35</v>
       </c>
@@ -890,7 +890,7 @@
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>35</v>
       </c>
@@ -965,7 +965,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>35</v>
       </c>
@@ -994,7 +994,7 @@
       <c r="X3"/>
       <c r="Y3"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="11"/>
@@ -1021,7 +1021,7 @@
       <c r="X4" s="11"/>
       <c r="Y4" s="11"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>36</v>
       </c>
@@ -1058,7 +1058,7 @@
       <c r="X5" s="12"/>
       <c r="Y5" s="12"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>36</v>
       </c>
@@ -1093,7 +1093,7 @@
       <c r="X6" s="12"/>
       <c r="Y6" s="12"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>36</v>
       </c>
@@ -1124,7 +1124,7 @@
       <c r="X7" s="12"/>
       <c r="Y7" s="12"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>36</v>
       </c>
@@ -1155,7 +1155,7 @@
       <c r="X8" s="12"/>
       <c r="Y8" s="12"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>36</v>
       </c>
@@ -1184,7 +1184,7 @@
       <c r="X9" s="12"/>
       <c r="Y9" s="12"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>36</v>
       </c>
@@ -1213,7 +1213,7 @@
       <c r="X10" s="12"/>
       <c r="Y10" s="12"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="11"/>
@@ -1240,7 +1240,7 @@
       <c r="X11" s="11"/>
       <c r="Y11" s="11"/>
     </row>
-    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>44</v>
       </c>
@@ -1271,7 +1271,7 @@
       <c r="X12" s="13"/>
       <c r="Y12" s="13"/>
     </row>
-    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>45</v>
       </c>
@@ -1302,7 +1302,7 @@
       <c r="X13" s="13"/>
       <c r="Y13" s="13"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="14"/>
@@ -1329,7 +1329,7 @@
       <c r="X14" s="14"/>
       <c r="Y14" s="14"/>
     </row>
-    <row r="15" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>41</v>
       </c>
@@ -1360,7 +1360,7 @@
       <c r="X15" s="19"/>
       <c r="Y15" s="19"/>
     </row>
-    <row r="16" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>41</v>
       </c>
@@ -1391,7 +1391,7 @@
       <c r="X16" s="19"/>
       <c r="Y16" s="19"/>
     </row>
-    <row r="17" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>41</v>
       </c>
@@ -1422,7 +1422,7 @@
       <c r="X17" s="19"/>
       <c r="Y17" s="19"/>
     </row>
-    <row r="18" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>41</v>
       </c>
@@ -1453,7 +1453,7 @@
       <c r="X18" s="19"/>
       <c r="Y18" s="19"/>
     </row>
-    <row r="19" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>41</v>
       </c>
@@ -1484,7 +1484,7 @@
       <c r="X19" s="19"/>
       <c r="Y19" s="19"/>
     </row>
-    <row r="20" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>41</v>
       </c>
@@ -1515,7 +1515,7 @@
       <c r="X20" s="20"/>
       <c r="Y20" s="20"/>
     </row>
-    <row r="21" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
       <c r="B21" s="21"/>
       <c r="C21" s="18"/>
@@ -1542,7 +1542,7 @@
       <c r="X21" s="18"/>
       <c r="Y21" s="18"/>
     </row>
-    <row r="22" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -1567,7 +1567,7 @@
       <c r="X22" s="15"/>
       <c r="Y22" s="15"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
       <c r="J23" s="16"/>

--- a/templates/2EXT04_DNA/2EXT04_DNA.xlsx
+++ b/templates/2EXT04_DNA/2EXT04_DNA.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\2EXT04_DNA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F40634-9C08-4D09-AC44-C63C531B7D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF707055-63C8-4006-B01C-2F077956B51F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="2EXT04_DNA" sheetId="1" r:id="rId1"/>
+    <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,8 +25,28 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={B81F90EA-1EA7-4FF0-9CEC-2E77DFDBC937}</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{B81F90EA-1EA7-4FF0-9CEC-2E77DFDBC937}">
+      <text>
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
+    The unique identifier of this template. It will be auto generated.
+Antwort:
+    id=a927fd4c-851f-4a69-8aa0-fc680f495a64</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Source Name</t>
   </si>
@@ -82,6 +103,129 @@
   </si>
   <si>
     <t>Term Accession Number (NFDI4PSO:0000051)</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Docslink</t>
+  </si>
+  <si>
+    <t>Organisation</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>#ER list</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>ER Term Accession Number</t>
+  </si>
+  <si>
+    <t>ER Term Source REF</t>
+  </si>
+  <si>
+    <t>#TAGS list</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>Tags Term Accession Number</t>
+  </si>
+  <si>
+    <t>Tags Term Source REF</t>
+  </si>
+  <si>
+    <t>#AUTHORS list</t>
+  </si>
+  <si>
+    <t>Authors Last Name</t>
+  </si>
+  <si>
+    <t>Authors First Name</t>
+  </si>
+  <si>
+    <t>Authors Mid Initials</t>
+  </si>
+  <si>
+    <t>Authors Email</t>
+  </si>
+  <si>
+    <t>Authors Phone</t>
+  </si>
+  <si>
+    <t>Authors Fax</t>
+  </si>
+  <si>
+    <t>Authors Address</t>
+  </si>
+  <si>
+    <t>Authors Affiliation</t>
+  </si>
+  <si>
+    <t>#AUTHORS ROLES list</t>
+  </si>
+  <si>
+    <t>Authors Roles</t>
+  </si>
+  <si>
+    <t>Authors Roles Term Accession Number</t>
+  </si>
+  <si>
+    <t>Authors Roles Term Source REF</t>
+  </si>
+  <si>
+    <t>a927fd4c-851f-4a69-8aa0-fc680f495a64</t>
+  </si>
+  <si>
+    <t>DNA extraction</t>
+  </si>
+  <si>
+    <t>Template to describe the extraction of DNA.</t>
+  </si>
+  <si>
+    <t>annotationTableThinTreefrog81</t>
+  </si>
+  <si>
+    <t>SRA</t>
+  </si>
+  <si>
+    <t>GENBANK</t>
+  </si>
+  <si>
+    <t>Extraction</t>
+  </si>
+  <si>
+    <t>DNA</t>
+  </si>
+  <si>
+    <t>Kranz</t>
+  </si>
+  <si>
+    <t>Brilhaus</t>
+  </si>
+  <si>
+    <t>Angela</t>
+  </si>
+  <si>
+    <t>Dominik</t>
+  </si>
+  <si>
+    <t>1.1.3</t>
   </si>
 </sst>
 </file>
@@ -92,7 +236,7 @@
     <numFmt numFmtId="164" formatCode="0.00\ &quot;milligram&quot;"/>
     <numFmt numFmtId="165" formatCode="0.00\ &quot;microliter&quot;"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,19 +244,127 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFF5F5F5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF217346"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9FCDB3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0E5C2F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC21F3A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFEFEFE"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFEFEFE"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFEFEFE"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFEFEFE"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFEFEFE"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFEFEFE"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFEFEFE"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFEFEFE"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -121,10 +373,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -183,6 +465,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Oliver Maus" id="{A0E3F80D-602E-4C9E-86D5-92F8DC3802C4}" userId="Oliver Maus" providerId="None"/>
+</personList>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -474,9 +762,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2021-11-03T16:50:53.47" personId="{A0E3F80D-602E-4C9E-86D5-92F8DC3802C4}" id="{B81F90EA-1EA7-4FF0-9CEC-2E77DFDBC937}">
+    <text>The unique identifier of this template. It will be auto generated.</text>
+  </threadedComment>
+  <threadedComment ref="A1" dT="2021-11-03T16:50:53.47" personId="{A0E3F80D-602E-4C9E-86D5-92F8DC3802C4}" id="{78A7F205-867B-4FFD-B5E3-AC7210AFB232}" parentId="{B81F90EA-1EA7-4FF0-9CEC-2E77DFDBC937}">
+    <text>id=a927fd4c-851f-4a69-8aa0-fc680f495a64</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="622" row="1">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="0">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -600,4 +899,255 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B230FA2-6BAA-4C1F-9634-19942CC6AE92}">
+  <dimension ref="A1:C28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="8"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="8"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="9"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="10"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="10"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="9"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="10"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="10"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="9"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="10"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="10"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="10"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="10"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="10"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="10"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="9"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="10"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<customXml>
+  <SwateTable Table="annotationTableThinTreefrog81">
+    <TableValidation DateTime="2021-11-03 16:50" SwateVersion="0.5.1" TableName="annotationTableThinTreefrog81" Userlist="">
+      <ColumnValidation ColumnAdress="0" ColumnHeader="Source Name" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="1" ColumnHeader="Parameter [Bio entity]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="4" ColumnHeader="Parameter [Biosource amount]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="8" ColumnHeader="Parameter [Extraction method]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="11" ColumnHeader="Parameter [Extraction buffer]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="14" ColumnHeader="Parameter [Extraction buffer volume]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="18" ColumnHeader="Sample Name" Importance="None" Unit="None" ValidationFormat="None"/>
+    </TableValidation>
+  </SwateTable>
+</customXml>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D14E1F85-EF96-44CD-91B0-9A2AB1772E54}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
--- a/templates/2EXT04_DNA/2EXT04_DNA.xlsx
+++ b/templates/2EXT04_DNA/2EXT04_DNA.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\2EXT04_DNA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF707055-63C8-4006-B01C-2F077956B51F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B6E3FF-8418-4B21-AE05-96C9586701B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2EXT04_DNA" sheetId="1" r:id="rId1"/>
     <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
+    <sheet name="SRA_GENOMICS" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="83">
   <si>
     <t>Source Name</t>
   </si>
@@ -226,6 +227,75 @@
   </si>
   <si>
     <t>1.1.3</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>TermSourceRef</t>
+  </si>
+  <si>
+    <t>Ontology</t>
+  </si>
+  <si>
+    <t>TAN</t>
+  </si>
+  <si>
+    <t>Content type (validation)</t>
+  </si>
+  <si>
+    <t>Notes during templating</t>
+  </si>
+  <si>
+    <t>Target term</t>
+  </si>
+  <si>
+    <t>Instruction</t>
+  </si>
+  <si>
+    <t>Requirement (m/o/n)</t>
+  </si>
+  <si>
+    <t>Value (cv/s/d)</t>
+  </si>
+  <si>
+    <t>Additional information</t>
+  </si>
+  <si>
+    <t>Review comments</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000012</t>
+  </si>
+  <si>
+    <t>NFDI4PSO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000012</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000013</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000013</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000054</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000054</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000050</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000050</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000051</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000051</t>
   </si>
 </sst>
 </file>
@@ -236,7 +306,7 @@
     <numFmt numFmtId="164" formatCode="0.00\ &quot;milligram&quot;"/>
     <numFmt numFmtId="165" formatCode="0.00\ &quot;microliter&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,12 +321,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -795,7 +859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1130,6 +1194,339 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" t="s">
+        <v>60</v>
+      </c>
+      <c r="L8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <customXml>
   <SwateTable Table="annotationTableThinTreefrog81">

--- a/templates/2EXT04_DNA/2EXT04_DNA.xlsx
+++ b/templates/2EXT04_DNA/2EXT04_DNA.xlsx
@@ -8,19 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\2EXT04_DNA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B6E3FF-8418-4B21-AE05-96C9586701B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568D2CD3-8737-444C-A240-CCA182E76112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2EXT04_DNA" sheetId="1" r:id="rId1"/>
     <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
     <sheet name="SRA_GENOMICS" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -355,7 +364,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -433,11 +442,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD2D2D2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD2D2D2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD2D2D2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD2D2D2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -470,6 +494,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -859,7 +889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1198,9 +1228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1219,306 +1247,306 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="13" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K2" t="s">
-        <v>60</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="B2" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" s="14" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="B3" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" s="14" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="E4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J4" t="s">
-        <v>60</v>
-      </c>
-      <c r="K4" t="s">
-        <v>60</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="E4" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" s="14" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="E5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I5" t="s">
-        <v>60</v>
-      </c>
-      <c r="J5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K5" t="s">
-        <v>60</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="E5" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" s="14" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J6" t="s">
-        <v>60</v>
-      </c>
-      <c r="K6" t="s">
-        <v>60</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="E6" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6" s="14" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="E7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H7" t="s">
-        <v>60</v>
-      </c>
-      <c r="I7" t="s">
-        <v>60</v>
-      </c>
-      <c r="J7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="E7" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="L7" s="14" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="E8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8" t="s">
-        <v>60</v>
-      </c>
-      <c r="H8" t="s">
-        <v>60</v>
-      </c>
-      <c r="I8" t="s">
-        <v>60</v>
-      </c>
-      <c r="J8" t="s">
-        <v>60</v>
-      </c>
-      <c r="K8" t="s">
-        <v>60</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="E8" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="L8" s="14" t="s">
         <v>60</v>
       </c>
     </row>

--- a/templates/2EXT04_DNA/2EXT04_DNA.xlsx
+++ b/templates/2EXT04_DNA/2EXT04_DNA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\2EXT04_DNA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568D2CD3-8737-444C-A240-CCA182E76112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F83C67-92DC-4F5F-9195-EBC483D502E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="91">
   <si>
     <t>Source Name</t>
   </si>
@@ -235,9 +235,6 @@
     <t>Dominik</t>
   </si>
   <si>
-    <t>1.1.3</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -305,6 +302,33 @@
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000051</t>
+  </si>
+  <si>
+    <t>RNA (Transcriptomics)</t>
+  </si>
+  <si>
+    <t>DNA (Genomics)</t>
+  </si>
+  <si>
+    <t>Metabolites</t>
+  </si>
+  <si>
+    <t>Protein</t>
+  </si>
+  <si>
+    <t>QIAGEN RNEasy</t>
+  </si>
+  <si>
+    <t>PCI method</t>
+  </si>
+  <si>
+    <t>QIAGEN RNEasy Buffer 2</t>
+  </si>
+  <si>
+    <t>phenol:chloroform:isopropanol</t>
+  </si>
+  <si>
+    <t>1.1.4</t>
   </si>
 </sst>
 </file>
@@ -315,7 +339,7 @@
     <numFmt numFmtId="164" formatCode="0.00\ &quot;milligram&quot;"/>
     <numFmt numFmtId="165" formatCode="0.00\ &quot;microliter&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,6 +351,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFF5F5F5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -458,8 +489,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -502,7 +534,8 @@
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{DE2A6450-71E8-47E2-B297-E4C3E22BB7A5}"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
@@ -568,8 +601,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{86110337-507F-400B-9E37-176F907029D7}" name="annotationTableThinTreefrog81" displayName="annotationTableThinTreefrog81" ref="A1:S2" totalsRowShown="0">
-  <autoFilter ref="A1:S2" xr:uid="{86110337-507F-400B-9E37-176F907029D7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{86110337-507F-400B-9E37-176F907029D7}" name="annotationTableThinTreefrog81" displayName="annotationTableThinTreefrog81" ref="A1:S5" totalsRowShown="0">
+  <autoFilter ref="A1:S5" xr:uid="{86110337-507F-400B-9E37-176F907029D7}"/>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{2D4FFDA4-6A76-42E5-BD93-D89F35B78BBA}" name="Source Name"/>
     <tableColumn id="3" xr3:uid="{CE1F3C26-D51E-45C1-A5BC-DFB94FFD541A}" name="Parameter [Bio entity]"/>
@@ -872,6 +905,9 @@
   <wetp:taskpane dockstate="right" visibility="0" width="350" row="0">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
+  <wetp:taskpane dockstate="right" visibility="0" width="676" row="2">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+  </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
@@ -885,9 +921,19 @@
 </we:webextension>
 </file>
 
+<file path=xl/webextensions/webextension2.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{60AE215E-F5ED-436A-B1C0-E2E05E8ADBB3}">
+  <we:reference id="5d6f5462-3401-48ec-9406-d12882e9ad84" version="0.5.1.0" store="\\DT-P-2020-04-OM\swate_manifests" storeType="Filesystem"/>
+  <we:alternateReferences/>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -972,20 +1018,90 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-      <c r="O2" s="2"/>
+      <c r="O2" s="2">
+        <v>200</v>
+      </c>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1028,7 +1144,7 @@
         <v>21</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1248,40 +1364,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>70</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1289,37 +1405,37 @@
         <v>0</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1327,37 +1443,37 @@
         <v>1</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1365,37 +1481,37 @@
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="D4" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>74</v>
-      </c>
       <c r="E4" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1403,37 +1519,37 @@
         <v>5</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>76</v>
-      </c>
       <c r="E5" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1441,37 +1557,37 @@
         <v>9</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>78</v>
-      </c>
       <c r="E6" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1479,37 +1595,37 @@
         <v>12</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>80</v>
-      </c>
       <c r="E7" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1517,37 +1633,37 @@
         <v>15</v>
       </c>
       <c r="B8" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>82</v>
-      </c>
       <c r="E8" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L8" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1558,13 +1674,13 @@
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <customXml>
   <SwateTable Table="annotationTableThinTreefrog81">
-    <TableValidation DateTime="2021-11-03 16:50" SwateVersion="0.5.1" TableName="annotationTableThinTreefrog81" Userlist="">
+    <TableValidation DateTime="2021-12-13 19:15" SwateVersion="0.5.1" TableName="annotationTableThinTreefrog81" Userlist="">
       <ColumnValidation ColumnAdress="0" ColumnHeader="Source Name" Importance="None" Unit="None" ValidationFormat="None"/>
       <ColumnValidation ColumnAdress="1" ColumnHeader="Parameter [Bio entity]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="4" ColumnHeader="Parameter [Biosource amount]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="4" ColumnHeader="Parameter [Biosource amount]" Importance="4" Unit="None" ValidationFormat="UnitTerm milligram"/>
       <ColumnValidation ColumnAdress="8" ColumnHeader="Parameter [Extraction method]" Importance="None" Unit="None" ValidationFormat="None"/>
       <ColumnValidation ColumnAdress="11" ColumnHeader="Parameter [Extraction buffer]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="14" ColumnHeader="Parameter [Extraction buffer volume]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="14" ColumnHeader="Parameter [Extraction buffer volume]" Importance="4" Unit="None" ValidationFormat="UnitTerm microliter"/>
       <ColumnValidation ColumnAdress="18" ColumnHeader="Sample Name" Importance="None" Unit="None" ValidationFormat="None"/>
     </TableValidation>
   </SwateTable>
@@ -1572,7 +1688,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D14E1F85-EF96-44CD-91B0-9A2AB1772E54}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3B6D515-30DD-4CF9-BB35-5D0820C290D7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/templates/2EXT04_DNA/2EXT04_DNA.xlsx
+++ b/templates/2EXT04_DNA/2EXT04_DNA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\2EXT04_DNA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F83C67-92DC-4F5F-9195-EBC483D502E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33766696-CCED-460B-A119-C7D01AEA54C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="98">
   <si>
     <t>Source Name</t>
   </si>
@@ -313,9 +313,6 @@
     <t>Metabolites</t>
   </si>
   <si>
-    <t>Protein</t>
-  </si>
-  <si>
     <t>QIAGEN RNEasy</t>
   </si>
   <si>
@@ -328,7 +325,31 @@
     <t>phenol:chloroform:isopropanol</t>
   </si>
   <si>
-    <t>1.1.4</t>
+    <t>user-specific</t>
+  </si>
+  <si>
+    <t>protein</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_1000093</t>
+  </si>
+  <si>
+    <t>milligram</t>
+  </si>
+  <si>
+    <t>UO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000022</t>
+  </si>
+  <si>
+    <t>microliter</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000101</t>
+  </si>
+  <si>
+    <t>1.1.5</t>
   </si>
 </sst>
 </file>
@@ -902,7 +923,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="350" row="0">
+  <wetp:taskpane dockstate="right" visibility="0" width="655" row="2">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
   <wetp:taskpane dockstate="right" visibility="0" width="676" row="2">
@@ -941,10 +962,12 @@
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="0" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="43.7109375" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" hidden="1" customWidth="1"/>
-    <col min="7" max="8" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="36.7109375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="43.7109375" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="43.7109375" hidden="1" customWidth="1"/>
@@ -1021,58 +1044,122 @@
       <c r="B2" t="s">
         <v>82</v>
       </c>
+      <c r="C2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" t="s">
+        <v>89</v>
+      </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="I2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+        <v>85</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="L2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
+        <v>87</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="O2" s="2">
         <v>200</v>
       </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
+      <c r="P2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>83</v>
       </c>
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" t="s">
+        <v>89</v>
+      </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="I3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+        <v>86</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="L3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
+      <c r="N3" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
+      <c r="P3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>84</v>
       </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" t="s">
+        <v>89</v>
+      </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1080,18 +1167,36 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
+      <c r="P4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>85</v>
+        <v>90</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" t="s">
+        <v>91</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1099,9 +1204,15 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
+      <c r="P5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>96</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1144,7 +1255,7 @@
         <v>21</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
